--- a/supplementary/S4_Table.xlsx
+++ b/supplementary/S4_Table.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Dropbox\Systematic review\Supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Documents\cfss\RabiesScopingReview\supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA2298B-A384-4991-9723-E4CE7BB225F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A1FF4-7088-45C0-B9A4-EF7EE08687E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="1272" windowWidth="17280" windowHeight="9060" xr2:uid="{7D498535-FC50-48B9-B951-ED7924AF11CD}"/>
+    <workbookView xWindow="732" yWindow="1212" windowWidth="17280" windowHeight="5688" xr2:uid="{7D498535-FC50-48B9-B951-ED7924AF11CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="ST4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/supplementary/S4_Table.xlsx
+++ b/supplementary/S4_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Documents\cfss\RabiesScopingReview\supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Dropbox\Systematic review\Supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A1FF4-7088-45C0-B9A4-EF7EE08687E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC3F76A-900D-47DD-9742-402D0BF991FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="1212" windowWidth="17280" windowHeight="5688" xr2:uid="{7D498535-FC50-48B9-B951-ED7924AF11CD}"/>
+    <workbookView xWindow="-108" yWindow="372" windowWidth="23256" windowHeight="12696" xr2:uid="{7D498535-FC50-48B9-B951-ED7924AF11CD}"/>
   </bookViews>
   <sheets>
     <sheet name="ST4" sheetId="1" r:id="rId1"/>
@@ -1410,7 +1410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340E44B6-B072-4DD2-A13E-43BB21E6117C}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
